--- a/output_additional_column/1973.xlsx
+++ b/output_additional_column/1973.xlsx
@@ -490,7 +490,7 @@
         <v>42429</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="4">
@@ -536,7 +536,7 @@
         <v>23559</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>79593</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         <v>35860</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         <v>35688</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="9">
@@ -654,7 +654,7 @@
         <v>157243</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="10">
@@ -678,7 +678,7 @@
         <v>51148</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="11">
@@ -702,7 +702,7 @@
         <v>46854</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
         <v>7500</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="13">
@@ -750,7 +750,7 @@
         <v>27190</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="14">
@@ -774,7 +774,7 @@
         <v>35688</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="15">
@@ -798,7 +798,7 @@
         <v>37401</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="16">
@@ -822,7 +822,7 @@
         <v>38961</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="17">
@@ -846,7 +846,7 @@
         <v>27159</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +870,7 @@
         <v>42429</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="19">
@@ -894,7 +894,7 @@
         <v>18978</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>83917</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="21">
@@ -942,7 +942,7 @@
         <v>78901</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="22">
@@ -966,7 +966,7 @@
         <v>89694</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="23">
@@ -990,7 +990,7 @@
         <v>67432</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
         <v>73926</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>38576</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="26">
@@ -1062,7 +1062,7 @@
         <v>57906</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="27">
@@ -1086,7 +1086,7 @@
         <v>31814</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="28">
@@ -1110,7 +1110,7 @@
         <v>57100</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="29">
@@ -1134,7 +1134,7 @@
         <v>44051</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="30">
@@ -1158,7 +1158,7 @@
         <v>59041</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="31">
@@ -1182,7 +1182,7 @@
         <v>92955</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="32">
@@ -1206,7 +1206,7 @@
         <v>33471</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="33">
@@ -1230,7 +1230,7 @@
         <v>52845</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="34">
@@ -1254,7 +1254,7 @@
         <v>32300</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="35">
@@ -1278,7 +1278,7 @@
         <v>34961</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1302,7 @@
         <v>79593</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="37">
@@ -1326,7 +1326,7 @@
         <v>35860</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="38">
@@ -1350,7 +1350,7 @@
         <v>85844</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="39">
@@ -1374,7 +1374,7 @@
         <v>54466</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="40">
@@ -1398,7 +1398,7 @@
         <v>52034</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="41">
@@ -1422,7 +1422,7 @@
         <v>26228</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="42">
@@ -1446,7 +1446,7 @@
         <v>20427</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="43">
@@ -1470,7 +1470,7 @@
         <v>35860</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="44">
@@ -1494,7 +1494,7 @@
         <v>43050</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="45">
@@ -1518,7 +1518,7 @@
         <v>46094</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="46">
@@ -1542,7 +1542,7 @@
         <v>37971</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="47">
@@ -1566,7 +1566,7 @@
         <v>20895</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="48">
@@ -1590,7 +1590,7 @@
         <v>22682</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="49">
@@ -1614,7 +1614,7 @@
         <v>24639</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="50">
@@ -1638,7 +1638,7 @@
         <v>31163</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="51">
@@ -1662,7 +1662,7 @@
         <v>34853</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="52">
@@ -1686,7 +1686,7 @@
         <v>69401</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="53">
@@ -1710,7 +1710,7 @@
         <v>31163</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="54">
@@ -1734,7 +1734,7 @@
         <v>54108</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="55">
@@ -1758,7 +1758,7 @@
         <v>37401</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="56">
@@ -1782,7 +1782,7 @@
         <v>3502</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="57">
@@ -1806,7 +1806,7 @@
         <v>35860</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="58">
@@ -1830,7 +1830,7 @@
         <v>48432</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="59">
@@ -1854,7 +1854,7 @@
         <v>60432</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="60">
@@ -1878,7 +1878,7 @@
         <v>55012</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="61">
@@ -1902,7 +1902,7 @@
         <v>9722</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="62">
@@ -1926,7 +1926,7 @@
         <v>54222</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="63">
@@ -1950,7 +1950,7 @@
         <v>39435</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="64">
@@ -1974,7 +1974,7 @@
         <v>49094</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="65">
@@ -1998,7 +1998,7 @@
         <v>60208</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="66">
@@ -2022,7 +2022,7 @@
         <v>25410</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="67">
@@ -2046,7 +2046,7 @@
         <v>32644</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="68">
@@ -2070,7 +2070,7 @@
         <v>65308</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="69">
@@ -2094,7 +2094,7 @@
         <v>71128</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="70">
@@ -2118,7 +2118,7 @@
         <v>27803</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="71">
@@ -2142,7 +2142,7 @@
         <v>65333</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="72">
@@ -2166,7 +2166,7 @@
         <v>63516</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="73">
@@ -2190,7 +2190,7 @@
         <v>48432</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="74">
@@ -2214,7 +2214,7 @@
         <v>55593</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
     <row r="75">
@@ -2238,7 +2238,7 @@
         <v>48432</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44703.76711195691</v>
+        <v>44703.79033133783</v>
       </c>
     </row>
   </sheetData>
